--- a/LubanTools/DesignerConfigs/Datas/Sound_音效表.xlsx
+++ b/LubanTools/DesignerConfigs/Datas/Sound_音效表.xlsx
@@ -27,39 +27,54 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="14">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="19">
+  <si>
+    <t>##group</t>
+  </si>
+  <si>
+    <t>c,s</t>
+  </si>
+  <si>
+    <t>##type</t>
+  </si>
+  <si>
+    <t>int</t>
+  </si>
+  <si>
+    <t>string</t>
+  </si>
+  <si>
+    <t>##</t>
+  </si>
+  <si>
+    <t>音效id</t>
+  </si>
+  <si>
+    <t>音效资源</t>
+  </si>
+  <si>
+    <t>默认音量大小</t>
+  </si>
+  <si>
+    <t>音效名称</t>
+  </si>
   <si>
     <t>##var</t>
   </si>
   <si>
-    <t>Id</t>
-  </si>
-  <si>
-    <t>SoundResource</t>
-  </si>
-  <si>
-    <t>##</t>
-  </si>
-  <si>
-    <t>音效id</t>
-  </si>
-  <si>
-    <t>音效资源</t>
-  </si>
-  <si>
-    <t>##group</t>
-  </si>
-  <si>
-    <t>c,s</t>
-  </si>
-  <si>
-    <t>##type</t>
-  </si>
-  <si>
-    <t>int</t>
-  </si>
-  <si>
-    <t>string</t>
+    <t>id</t>
+  </si>
+  <si>
+    <t>soundResource</t>
+  </si>
+  <si>
+    <t>volume</t>
+  </si>
+  <si>
+    <t>name</t>
+  </si>
+  <si>
+    <t>主场景背景音乐</t>
   </si>
   <si>
     <t>通用点击音效</t>
@@ -81,20 +96,30 @@
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
-  <fonts count="21">
+  <fonts count="23">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="微软雅黑"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="微软雅黑"/>
+      <charset val="134"/>
     </font>
     <font>
       <sz val="12"/>
       <color theme="1"/>
-      <name val="宋体"/>
+      <name val="微软雅黑"/>
       <charset val="134"/>
-      <scheme val="minor"/>
     </font>
     <font>
       <u/>
@@ -241,7 +266,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="34">
+  <fills count="35">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -250,7 +275,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC000"/>
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.4"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -451,16 +482,16 @@
     </border>
     <border>
       <left style="thin">
-        <color auto="1"/>
+        <color theme="7" tint="-0.5"/>
       </left>
       <right style="thin">
-        <color auto="1"/>
+        <color theme="7" tint="-0.5"/>
       </right>
       <top style="thin">
-        <color auto="1"/>
+        <color theme="7" tint="-0.5"/>
       </top>
       <bottom style="thin">
-        <color auto="1"/>
+        <color theme="7" tint="-0.5"/>
       </bottom>
       <diagonal/>
     </border>
@@ -582,147 +613,158 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="2">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="2">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="3">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="3">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="4">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="4" borderId="5">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="5" borderId="6">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="3">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="3">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="4">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="5" borderId="5">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="6" borderId="7">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="8">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="9">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="7" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="8" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="9" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="10" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="11" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="12" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="13" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="14" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="15" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="16" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="17" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="18" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="19" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="20" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="21" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="22" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="23" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="24" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="25" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="26" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="27" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="28" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="29" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="30" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="31" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="32" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="33" borderId="0">
+    <xf numFmtId="0" fontId="13" fillId="6" borderId="6">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="6" borderId="5">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="7" borderId="7">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="8">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="9">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="8" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="9" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="10" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="11" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="12" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="13" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="14" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="15" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="16" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="17" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="18" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="19" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="20" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="21" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="22" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="23" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="24" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="25" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="26" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="27" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="28" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="29" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="30" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="31" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="32" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="33" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="34" borderId="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
-      <alignment vertical="center"/>
-    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="49">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -1034,102 +1076,133 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr codeName="Sheet1"/>
-  <dimension ref="A1:D16"/>
+  <dimension ref="A1:E17"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="3" ySplit="4" topLeftCell="D5" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="4" topLeftCell="C5" activePane="bottomRight" state="frozen"/>
       <selection/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="C8" sqref="C8"/>
+      <selection pane="bottomRight" activeCell="E5" sqref="E5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="3"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5" outlineLevelCol="4"/>
   <cols>
     <col min="1" max="2" width="9" style="1"/>
-    <col min="3" max="4" width="20.625" style="1" customWidth="1"/>
-    <col min="5" max="16369" width="9" style="1"/>
+    <col min="3" max="5" width="20.625" style="1" customWidth="1"/>
+    <col min="6" max="16369" width="9" style="1"/>
+    <col min="16370" max="16384" width="9" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" s="1" customFormat="1" ht="14.25" spans="1:4">
-      <c r="A1" s="2" t="s">
+    <row r="1" s="1" customFormat="1" spans="1:5">
+      <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="3" t="s">
+      <c r="B1" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="3" t="s">
+      <c r="C1" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="E1" s="4" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2" s="1" customFormat="1" spans="1:5">
+      <c r="A2" s="3" t="s">
         <v>2</v>
       </c>
+      <c r="B2" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="C2" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="D2" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="E2" s="4" t="s">
+        <v>4</v>
+      </c>
     </row>
-    <row r="2" s="1" customFormat="1" ht="14.25" spans="1:4">
-      <c r="A2" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="B2" s="4" t="s">
-        <v>4</v>
-      </c>
-      <c r="C2" s="4" t="s">
+    <row r="3" s="1" customFormat="1" spans="1:5">
+      <c r="A3" s="3" t="s">
         <v>5</v>
       </c>
+      <c r="B3" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="C3" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="D3" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="E3" s="4" t="s">
+        <v>9</v>
+      </c>
     </row>
-    <row r="3" s="1" customFormat="1" ht="14.25" spans="1:4">
-      <c r="A3" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="B3" s="5" t="s">
-        <v>7</v>
-      </c>
-      <c r="C3" s="5" t="s">
-        <v>7</v>
-      </c>
-      <c r="D3" s="5" t="s">
-        <v>7</v>
+    <row r="4" s="1" customFormat="1" spans="1:5">
+      <c r="A4" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="B4" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="C4" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="D4" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="E4" s="4" t="s">
+        <v>14</v>
       </c>
     </row>
-    <row r="4" s="1" customFormat="1" ht="14.25" spans="1:4">
-      <c r="A4" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="B4" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="C4" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="D4" s="3" t="s">
-        <v>10</v>
+    <row r="5" s="1" customFormat="1" ht="17.25" spans="1:5">
+      <c r="A5" s="5"/>
+      <c r="B5" s="6">
+        <v>1</v>
+      </c>
+      <c r="C5" s="6"/>
+      <c r="D5" s="6"/>
+      <c r="E5" s="7" t="s">
+        <v>15</v>
       </c>
     </row>
-    <row r="5" s="1" customFormat="1" ht="14.25" spans="1:4">
-      <c r="A5" s="2"/>
-      <c r="B5" s="3">
+    <row r="6" s="1" customFormat="1" ht="17.25" spans="1:5">
+      <c r="A6" s="5"/>
+      <c r="B6" s="6">
         <v>101</v>
       </c>
-      <c r="C5" s="3"/>
-      <c r="D5" s="1" t="s">
-        <v>11</v>
+      <c r="C6" s="6"/>
+      <c r="D6" s="6"/>
+      <c r="E6" s="8" t="s">
+        <v>16</v>
       </c>
     </row>
-    <row r="6" s="1" customFormat="1" ht="14.25" spans="1:4">
-      <c r="A6" s="2"/>
-      <c r="B6" s="3">
+    <row r="7" s="1" customFormat="1" ht="17.25" spans="1:5">
+      <c r="A7" s="5"/>
+      <c r="B7" s="6">
         <v>102</v>
       </c>
-      <c r="C6" s="3"/>
-      <c r="D6" s="1" t="s">
-        <v>12</v>
+      <c r="C7" s="6"/>
+      <c r="D7" s="6"/>
+      <c r="E7" s="8" t="s">
+        <v>17</v>
       </c>
     </row>
-    <row r="7" s="1" customFormat="1" spans="1:4">
-      <c r="B7" s="1">
+    <row r="8" s="1" customFormat="1" spans="1:5">
+      <c r="B8" s="1">
         <v>103</v>
       </c>
-      <c r="D7" s="1" t="s">
-        <v>13</v>
+      <c r="E8" s="8" t="s">
+        <v>18</v>
       </c>
     </row>
-    <row r="8" s="1" customFormat="1"/>
     <row r="9" s="1" customFormat="1"/>
     <row r="10" s="1" customFormat="1"/>
     <row r="11" s="1" customFormat="1"/>
@@ -1138,6 +1211,7 @@
     <row r="14" s="1" customFormat="1"/>
     <row r="15" s="1" customFormat="1"/>
     <row r="16" s="1" customFormat="1"/>
+    <row r="17" s="1" customFormat="1"/>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
